--- a/biology/Mycologie/Chamonixia_pachydermis/Chamonixia_pachydermis.xlsx
+++ b/biology/Mycologie/Chamonixia_pachydermis/Chamonixia_pachydermis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Champignon pomme de terre
 Chamonixia pachydermis, en français champignon pomme de terre, est une espèce de champignons gastéroïdes non comestibles, basidiomycètes, d'Australie orientale et de Nouvelle-Zélande. S'il ressemble fort à un scléroderme, le genre Chamonixia fait néanmoins partie de la famille des Boletaceae.
@@ -512,7 +524,9 @@
           <t>Nom binominal accepté</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chamonixia pachydermis (Zeller &amp; C.W. Dodge) G.W. Beaton, Pegler &amp; T.W.K. Young 1985
 </t>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le champignon en forme de scléroderme fripé de 2 à 5 cm de diamètre, dépourvu de pied, se développe à la surface du sol, parfois  grégaires en touffe de quelques exemplaires, cespiteux, tubériformes ou piriformes[1], pouvant ressembler à de petits cailloux. Sa surface est collante et humide, viscidule, de couleur verdâtre où des taches bleu foncé apparaissent avec l'âge, parfois de l'ocre jaune au vert d'iode brillant, ou rouille. Le péridium est blanc ; la gleba est brun chocolat et compacte[2]. La sporée est brune à noir brun. Son odeur est nauséabonde.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le champignon en forme de scléroderme fripé de 2 à 5 cm de diamètre, dépourvu de pied, se développe à la surface du sol, parfois  grégaires en touffe de quelques exemplaires, cespiteux, tubériformes ou piriformes, pouvant ressembler à de petits cailloux. Sa surface est collante et humide, viscidule, de couleur verdâtre où des taches bleu foncé apparaissent avec l'âge, parfois de l'ocre jaune au vert d'iode brillant, ou rouille. Le péridium est blanc ; la gleba est brun chocolat et compacte. La sporée est brune à noir brun. Son odeur est nauséabonde.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Hymenogaster pachydermis Zeller &amp; C.W. Dodge 1934[3] (synonyme)
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Hymenogaster pachydermis Zeller &amp; C.W. Dodge 1934 (synonyme)
 Hysterangium sclerodermum (Cooke) G.H. Cunn. (synonyme)
 Gautieria novae-zelandiae</t>
         </is>
@@ -606,9 +624,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Océanie : Australie orientale et de Nouvelle-Zélande, brûlis, forêt de Nothofagus et les plages avoisinantes[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Océanie : Australie orientale et de Nouvelle-Zélande, brûlis, forêt de Nothofagus et les plages avoisinantes.
 </t>
         </is>
       </c>
@@ -637,9 +657,11 @@
           <t>Biochimie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un acide oxalylate tétramique, la pachydermine, dont les produits de dégradation montrent une légère activité antibactérienne contre Bacillus subtilis, a été isolé de Chamonixia pachydermis[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un acide oxalylate tétramique, la pachydermine, dont les produits de dégradation montrent une légère activité antibactérienne contre Bacillus subtilis, a été isolé de Chamonixia pachydermis.
 </t>
         </is>
       </c>
